--- a/test_xlsx/P皮肤特性表.xlsx
+++ b/test_xlsx/P皮肤特性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>MOD</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>FRONT_TYPE</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>DES</t>
@@ -184,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -218,6 +224,79 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -229,36 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -268,15 +317,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,85 +364,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -392,19 +398,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,163 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,11 +640,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,33 +674,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,21 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -731,6 +726,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -739,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,136 +757,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,7 +1307,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1383,13 +1389,25 @@
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1411,28 +1429,28 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:26">
       <c r="A4" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1455,26 +1473,26 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:26">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1497,12 +1515,12 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="49.5" spans="1:26">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1529,7 +1547,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:26">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1559,7 +1577,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="14">
         <v>1</v>
@@ -1569,24 +1587,24 @@
         <v>唯一</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
@@ -1596,24 +1614,24 @@
         <v>唯一</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="14">
         <v>3</v>
@@ -1623,24 +1641,24 @@
         <v>唯一</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="14">
         <v>4</v>
@@ -1650,24 +1668,24 @@
         <v>唯一</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="14">
         <v>5</v>
@@ -1677,24 +1695,24 @@
         <v>唯一</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="14">
         <v>6</v>
@@ -1704,24 +1722,24 @@
         <v>唯一</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="14">
         <v>7</v>
@@ -1731,24 +1749,24 @@
         <v>唯一</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="14">
         <v>8</v>
@@ -1758,19 +1776,19 @@
         <v>唯一</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1894,28 +1912,28 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:26">
       <c r="A4" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1938,26 +1956,26 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:26">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1980,12 +1998,12 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="49.5" spans="1:26">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -2012,7 +2030,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:26">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2050,33 +2068,33 @@
         <v>唯一</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="66" spans="2:8">
       <c r="B9" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
